--- a/demo/kCat_over_km.xlsx
+++ b/demo/kCat_over_km.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matteo/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matteo/Coding/Epistasis_Calculator/demo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F5BA7E6-AB4A-3548-9F7D-282C59F1ADC0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C36905-DC64-D347-84C4-D0C809280954}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="23">
   <si>
     <t>P21L</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>3.3333333</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -451,12 +454,15 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
